--- a/testdata/testdata.xlsx
+++ b/testdata/testdata.xlsx
@@ -3,20 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53858594-3251-47F0-BF75-1C5806D715E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B20858F-6A6B-452D-925B-13657F13CCE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserCredentials" sheetId="1" r:id="rId1"/>
-    <sheet name="TableData" sheetId="4" r:id="rId2"/>
+    <sheet name="Demosite_login_data" sheetId="5" r:id="rId2"/>
+    <sheet name="TableData" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>UserName</t>
   </si>
@@ -118,6 +119,9 @@
   </si>
   <si>
     <t>Giovanni Rovelli</t>
+  </si>
+  <si>
+    <t>demo123</t>
   </si>
 </sst>
 </file>
@@ -519,7 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -619,6 +623,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF391FE0-0DF9-481D-A7F0-5A36EB5ECA05}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>

--- a/testdata/testdata.xlsx
+++ b/testdata/testdata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B20858F-6A6B-452D-925B-13657F13CCE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A71220C4-76D5-4490-9A7D-7318DA6F4928}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="20760" windowHeight="11820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserCredentials" sheetId="1" r:id="rId1"/>
@@ -13,11 +13,12 @@
     <sheet name="TableData" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>UserName</t>
   </si>
@@ -119,9 +120,6 @@
   </si>
   <si>
     <t>Giovanni Rovelli</t>
-  </si>
-  <si>
-    <t>demo123</t>
   </si>
 </sst>
 </file>
@@ -637,7 +635,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
